--- a/config_12.22/item_config.xlsx
+++ b/config_12.22/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="829">
   <si>
     <t>id|行号</t>
   </si>
@@ -3220,6 +3220,18 @@
   </si>
   <si>
     <t>冬至饺子掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_sd_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节礼盒道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3396,7 +3408,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3494,6 +3506,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3774,11 +3789,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q287"/>
+  <dimension ref="A1:Q288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
+      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13529,6 +13544,38 @@
         <v>825</v>
       </c>
     </row>
+    <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="13">
+        <v>287</v>
+      </c>
+      <c r="B288" s="13">
+        <v>287</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>826</v>
+      </c>
+      <c r="D288" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E288" s="13">
+        <v>1</v>
+      </c>
+      <c r="F288" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="G288" s="13">
+        <v>0</v>
+      </c>
+      <c r="H288" s="13">
+        <v>33</v>
+      </c>
+      <c r="I288" s="33" t="s">
+        <v>827</v>
+      </c>
+      <c r="J288" s="33" t="s">
+        <v>828</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.22/item_config.xlsx
+++ b/config_12.22/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="830">
   <si>
     <t>id|行号</t>
   </si>
@@ -3232,6 +3232,10 @@
   </si>
   <si>
     <t>圣诞节礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_sd_icon_lh</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3793,7 +3797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomLeft" activeCell="F291" sqref="F291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13561,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>

--- a/config_12.22/item_config.xlsx
+++ b/config_12.22/item_config.xlsx
@@ -3235,7 +3235,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>by_sd_icon_lh</t>
+    <t>by_sd_icon_lh_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3797,7 +3797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F291" sqref="F291"/>
+      <selection pane="bottomLeft" activeCell="F288" sqref="F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.22/item_config.xlsx
+++ b/config_12.22/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="829">
   <si>
     <t>id|行号</t>
   </si>
@@ -1241,9 +1241,6 @@
     <t>prop_xycj_coin</t>
   </si>
   <si>
-    <t>用于红包大转盘的抽奖</t>
-  </si>
-  <si>
     <t>prop_box_stxt_free</t>
   </si>
   <si>
@@ -1810,10 +1807,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_flqcj","panel",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_guess_apple_bet_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3236,6 +3229,10 @@
   </si>
   <si>
     <t>by_sd_icon_lh_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于福利券转盘中的福利转盘抽奖。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3795,9 +3792,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F288" sqref="F288"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3849,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -3861,16 +3858,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3949,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -3975,13 +3972,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -4027,13 +4024,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -4053,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4777,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5100,7 +5097,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -5277,7 +5274,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -5311,7 +5308,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -5483,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5521,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5559,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6104,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6136,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6174,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6298,10 +6295,10 @@
         <v>277</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -6386,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6395,14 +6392,12 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>432</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
@@ -6412,16 +6407,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="D81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6430,13 +6425,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O81" s="2">
         <v>4</v>
@@ -6450,16 +6445,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="D82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6468,13 +6463,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O82" s="2">
         <v>5</v>
@@ -6488,16 +6483,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1</v>
+      </c>
+      <c r="F83" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="D83" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="9">
-        <v>1</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>336</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -6506,10 +6501,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J83" s="18" t="s">
         <v>345</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6520,7 +6515,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D84" s="11">
         <v>-1</v>
@@ -6529,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G84" s="11">
         <v>0</v>
@@ -6538,10 +6533,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6552,7 +6547,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D85" s="2">
         <v>-1</v>
@@ -6561,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6570,10 +6565,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6584,7 +6579,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" s="2">
         <v>-1</v>
@@ -6593,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6602,10 +6597,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6616,7 +6611,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" s="2">
         <v>-1</v>
@@ -6625,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -6634,10 +6629,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6648,7 +6643,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D88" s="2">
         <v>-1</v>
@@ -6657,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -6666,10 +6661,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6680,7 +6675,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D89" s="2">
         <v>-1</v>
@@ -6689,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
@@ -6698,10 +6693,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6712,7 +6707,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D90" s="2">
         <v>-1</v>
@@ -6721,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
@@ -6730,10 +6725,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6744,7 +6739,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D91" s="2">
         <v>-1</v>
@@ -6753,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
@@ -6762,10 +6757,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6776,7 +6771,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D92" s="2">
         <v>-1</v>
@@ -6785,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
@@ -6794,10 +6789,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6808,7 +6803,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D93" s="2">
         <v>-1</v>
@@ -6817,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
@@ -6826,10 +6821,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6840,7 +6835,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D94" s="2">
         <v>-1</v>
@@ -6849,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
@@ -6858,13 +6853,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O94" s="2">
         <v>12</v>
@@ -6884,7 +6879,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D95" s="2">
         <v>-1</v>
@@ -6893,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -6902,10 +6897,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6916,7 +6911,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D96" s="2">
         <v>-1</v>
@@ -6925,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -6934,10 +6929,10 @@
         <v>34</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6948,7 +6943,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -6957,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -6966,10 +6961,10 @@
         <v>35</v>
       </c>
       <c r="I97" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="N97" s="2">
         <v>9</v>
@@ -6983,7 +6978,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D98" s="2">
         <v>-1</v>
@@ -6992,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -7001,10 +6996,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N98" s="2">
         <v>9</v>
@@ -7018,7 +7013,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D99" s="2">
         <v>-1</v>
@@ -7027,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -7036,10 +7031,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N99" s="2">
         <v>9</v>
@@ -7053,7 +7048,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D100" s="2">
         <v>-1</v>
@@ -7062,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -7071,10 +7066,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N100" s="2">
         <v>9</v>
@@ -7088,7 +7083,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" s="2">
         <v>-1</v>
@@ -7097,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -7106,10 +7101,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N101" s="2">
         <v>9</v>
@@ -7123,7 +7118,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="2">
         <v>-1</v>
@@ -7132,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -7141,10 +7136,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N102" s="2">
         <v>9</v>
@@ -7158,7 +7153,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -7167,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -7176,10 +7171,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N103" s="2">
         <v>9</v>
@@ -7193,7 +7188,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -7202,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -7211,10 +7206,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -7228,7 +7223,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D105" s="2">
         <v>-1</v>
@@ -7237,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -7246,10 +7241,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N105" s="2">
         <v>9</v>
@@ -7263,7 +7258,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D106" s="2">
         <v>-1</v>
@@ -7272,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -7281,10 +7276,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N106" s="2">
         <v>9</v>
@@ -7298,7 +7293,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -7307,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -7316,7 +7311,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>173</v>
@@ -7335,7 +7330,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -7344,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -7353,7 +7348,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>177</v>
@@ -7372,7 +7367,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -7381,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -7390,10 +7385,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7404,7 +7399,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -7413,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -7422,10 +7417,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -7437,28 +7432,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>174</v>
@@ -7475,28 +7470,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>174</v>
@@ -7513,28 +7508,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>174</v>
@@ -7551,28 +7546,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>174</v>
@@ -7589,28 +7584,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>174</v>
@@ -7627,28 +7622,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>174</v>
@@ -7665,7 +7660,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D117" s="2">
         <v>-1</v>
@@ -7674,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -7683,10 +7678,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -7699,7 +7694,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D118" s="2">
         <v>-1</v>
@@ -7708,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -7717,10 +7712,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J118" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7731,7 +7726,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D119" s="2">
         <v>-1</v>
@@ -7740,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -7749,10 +7744,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7763,7 +7758,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D120" s="2">
         <v>-1</v>
@@ -7772,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -7781,10 +7776,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7795,7 +7790,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D121" s="2">
         <v>-1</v>
@@ -7804,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7813,10 +7808,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7827,7 +7822,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D122" s="2">
         <v>-1</v>
@@ -7836,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7845,10 +7840,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7859,7 +7854,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7868,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7877,10 +7872,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7894,7 +7889,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7903,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7912,10 +7907,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7929,7 +7924,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7938,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7947,10 +7942,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7964,7 +7959,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7973,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7982,10 +7977,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7999,7 +7994,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -8008,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -8017,10 +8012,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -8034,7 +8029,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -8043,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -8052,10 +8047,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -8069,7 +8064,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -8078,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -8087,10 +8082,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -8104,16 +8099,16 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="D130" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -8122,10 +8117,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -8139,7 +8134,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -8148,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -8157,10 +8152,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -8171,7 +8166,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -8180,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -8189,10 +8184,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -8203,7 +8198,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -8212,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -8221,10 +8216,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="J133" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="J133" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -8235,7 +8230,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -8244,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -8253,10 +8248,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -8267,7 +8262,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -8276,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -8285,10 +8280,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -8299,7 +8294,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -8308,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -8317,10 +8312,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -8331,7 +8326,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -8340,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -8349,10 +8344,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -8363,7 +8358,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -8372,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -8381,10 +8376,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -8395,7 +8390,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -8404,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -8413,10 +8408,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -8427,7 +8422,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -8445,10 +8440,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -8459,7 +8454,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -8468,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -8477,10 +8472,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -8491,7 +8486,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -8500,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -8509,10 +8504,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -8523,7 +8518,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -8532,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -8541,10 +8536,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -8555,16 +8550,16 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="D144" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E144" s="2">
-        <v>1</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -8573,10 +8568,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -8587,7 +8582,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -8596,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -8605,10 +8600,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8619,7 +8614,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -8628,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -8637,10 +8632,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J146" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8651,7 +8646,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -8660,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -8669,10 +8664,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J147" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8683,7 +8678,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -8692,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -8701,10 +8696,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J148" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8715,7 +8710,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -8724,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -8733,10 +8728,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J149" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8747,7 +8742,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -8756,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -8765,10 +8760,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J150" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8779,7 +8774,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D151" s="11">
         <v>-1</v>
@@ -8788,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -8797,10 +8792,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J151" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8811,7 +8806,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8820,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8829,10 +8824,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8843,7 +8838,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8852,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8861,10 +8856,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8875,7 +8870,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8884,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8893,10 +8888,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8907,7 +8902,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D155" s="11">
         <v>-1</v>
@@ -8916,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8925,10 +8920,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8939,7 +8934,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8948,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8957,10 +8952,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J156" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8971,7 +8966,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8980,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8989,13 +8984,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N157" s="11">
         <v>9</v>
@@ -9009,7 +9004,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -9018,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -9027,13 +9022,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N158" s="11">
         <v>9</v>
@@ -9047,7 +9042,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -9056,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -9065,13 +9060,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N159" s="11">
         <v>9</v>
@@ -9085,7 +9080,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -9094,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -9103,13 +9098,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N160" s="11">
         <v>9</v>
@@ -9123,7 +9118,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -9132,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -9141,13 +9136,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N161" s="11">
         <v>9</v>
@@ -9161,7 +9156,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -9170,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -9179,10 +9174,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N162" s="11">
         <v>9</v>
@@ -9196,7 +9191,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -9205,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -9214,10 +9209,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N163" s="11">
         <v>9</v>
@@ -9231,7 +9226,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -9240,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -9249,10 +9244,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N164" s="11">
         <v>9</v>
@@ -9266,7 +9261,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -9275,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -9284,10 +9279,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N165" s="11">
         <v>9</v>
@@ -9301,7 +9296,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -9310,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -9319,10 +9314,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N166" s="11">
         <v>9</v>
@@ -9336,7 +9331,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -9345,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -9354,10 +9349,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N167" s="11">
         <v>9</v>
@@ -9371,7 +9366,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -9380,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -9389,10 +9384,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N168" s="11">
         <v>9</v>
@@ -9406,7 +9401,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -9415,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -9424,10 +9419,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N169" s="11">
         <v>9</v>
@@ -9441,16 +9436,16 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="D170" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="11">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="D170" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E170" s="11">
-        <v>1</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>611</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -9459,10 +9454,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N170" s="11">
         <v>9</v>
@@ -9476,16 +9471,16 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D171" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="11">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="D171" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E171" s="11">
-        <v>1</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>612</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -9494,10 +9489,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N171" s="11">
         <v>9</v>
@@ -9511,7 +9506,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -9520,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -9529,10 +9524,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9543,7 +9538,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D173" s="13">
         <v>-1</v>
@@ -9552,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -9561,10 +9556,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J173" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9575,7 +9570,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D174" s="13">
         <v>-1</v>
@@ -9584,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -9593,10 +9588,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J174" s="13" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9607,7 +9602,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D175" s="13">
         <v>-1</v>
@@ -9616,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -9625,10 +9620,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J175" s="13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9639,7 +9634,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D176" s="23">
         <v>-1</v>
@@ -9648,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -9657,10 +9652,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -9671,7 +9666,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D177" s="25">
         <v>-1</v>
@@ -9680,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -9689,10 +9684,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9703,7 +9698,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -9712,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -9721,10 +9716,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -9740,7 +9735,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -9749,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -9758,10 +9753,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -9777,7 +9772,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -9786,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -9795,10 +9790,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -9814,7 +9809,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -9823,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -9832,10 +9827,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9846,7 +9841,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D182" s="23">
         <v>-1</v>
@@ -9855,7 +9850,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -9864,13 +9859,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -9884,7 +9879,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -9893,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -9902,13 +9897,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L183" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -9922,7 +9917,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -9931,7 +9926,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -9940,13 +9935,13 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
@@ -9960,7 +9955,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9969,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -9978,10 +9973,10 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J185" s="28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
@@ -9995,7 +9990,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -10004,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10013,10 +10008,10 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J186" s="28" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
@@ -10030,7 +10025,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10039,7 +10034,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10048,10 +10043,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="J187" s="28" t="s">
         <v>673</v>
-      </c>
-      <c r="J187" s="28" t="s">
-        <v>675</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10065,7 +10060,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10074,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10083,10 +10078,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="J188" s="28" t="s">
         <v>674</v>
-      </c>
-      <c r="J188" s="28" t="s">
-        <v>676</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10100,7 +10095,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10109,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10118,10 +10113,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10135,7 +10130,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10144,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10153,10 +10148,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10170,7 +10165,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10179,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10188,10 +10183,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10205,7 +10200,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10214,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10223,10 +10218,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10240,7 +10235,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10249,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10258,10 +10253,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10275,7 +10270,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10284,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10293,10 +10288,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10310,7 +10305,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10319,7 +10314,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10328,10 +10323,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10345,7 +10340,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10354,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10363,10 +10358,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10380,7 +10375,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10389,7 +10384,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10398,10 +10393,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10415,7 +10410,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10424,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10433,10 +10428,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10450,7 +10445,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10459,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10468,10 +10463,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10485,7 +10480,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10494,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10503,10 +10498,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10520,7 +10515,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10529,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10538,10 +10533,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -10555,7 +10550,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -10564,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10573,10 +10568,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -10590,7 +10585,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -10599,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10608,10 +10603,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -10625,7 +10620,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -10634,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10643,10 +10638,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -10660,7 +10655,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -10669,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10678,10 +10673,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -10695,7 +10690,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -10704,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10713,10 +10708,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -10730,7 +10725,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -10739,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10748,10 +10743,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -10765,7 +10760,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -10774,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10783,10 +10778,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -10800,7 +10795,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -10809,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10818,10 +10813,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -10835,7 +10830,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -10844,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10853,10 +10848,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -10870,7 +10865,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -10879,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10888,10 +10883,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -10905,7 +10900,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -10914,7 +10909,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10923,10 +10918,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -10940,7 +10935,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -10949,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10958,10 +10953,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -10975,7 +10970,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -10984,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -10993,10 +10988,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11010,7 +11005,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11019,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11028,10 +11023,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11045,7 +11040,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11054,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11063,10 +11058,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11080,7 +11075,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11089,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11098,10 +11093,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11115,7 +11110,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11124,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11133,10 +11128,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11150,7 +11145,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11159,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11168,10 +11163,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11185,7 +11180,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11194,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11203,10 +11198,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11220,7 +11215,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11229,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11238,10 +11233,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11255,7 +11250,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11264,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11273,10 +11268,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11290,7 +11285,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11299,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11308,10 +11303,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11325,7 +11320,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11334,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11343,10 +11338,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11360,7 +11355,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11369,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11378,10 +11373,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11395,7 +11390,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11404,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11413,10 +11408,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11430,7 +11425,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11439,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11448,10 +11443,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11465,7 +11460,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11474,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11483,10 +11478,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11500,7 +11495,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11509,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11518,10 +11513,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11535,7 +11530,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11544,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -11553,10 +11548,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -11570,7 +11565,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11579,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -11588,10 +11583,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -11605,7 +11600,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11614,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -11623,10 +11618,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -11640,7 +11635,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11649,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -11658,10 +11653,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -11675,7 +11670,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11684,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -11693,10 +11688,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -11710,7 +11705,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11719,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -11728,10 +11723,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -11745,7 +11740,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11754,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -11763,10 +11758,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -11780,7 +11775,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11789,7 +11784,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -11798,10 +11793,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -11815,7 +11810,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11824,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -11833,10 +11828,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -11850,7 +11845,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11859,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -11868,10 +11863,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -11885,7 +11880,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11894,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -11903,10 +11898,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -11920,7 +11915,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11929,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -11938,10 +11933,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -11955,7 +11950,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11964,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -11973,10 +11968,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -11990,7 +11985,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -11999,7 +11994,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12008,10 +12003,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12025,7 +12020,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12034,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12043,10 +12038,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12060,7 +12055,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12069,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12078,10 +12073,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12095,7 +12090,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12104,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12113,10 +12108,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12130,7 +12125,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12139,7 +12134,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12148,10 +12143,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12165,7 +12160,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12174,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12183,10 +12178,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12200,7 +12195,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12209,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12218,10 +12213,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12235,7 +12230,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12244,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12253,10 +12248,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12270,7 +12265,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12279,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12288,10 +12283,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12305,7 +12300,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12314,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12323,10 +12318,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12340,7 +12335,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12349,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12358,10 +12353,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12375,7 +12370,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12384,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12393,10 +12388,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12410,7 +12405,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12419,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12428,10 +12423,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12445,7 +12440,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12454,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12463,10 +12458,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12480,7 +12475,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12489,7 +12484,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12498,10 +12493,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12515,7 +12510,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12524,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12533,10 +12528,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -12550,7 +12545,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12559,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -12568,10 +12563,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -12585,7 +12580,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12594,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -12603,10 +12598,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -12620,7 +12615,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12629,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -12638,10 +12633,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -12655,7 +12650,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12664,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -12673,10 +12668,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -12690,7 +12685,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12699,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -12708,10 +12703,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -12725,7 +12720,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12734,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -12743,10 +12738,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -12760,7 +12755,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12769,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -12778,10 +12773,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -12795,7 +12790,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12804,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -12813,10 +12808,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -12830,7 +12825,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12839,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -12848,10 +12843,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -12865,7 +12860,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12874,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -12883,10 +12878,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -12900,7 +12895,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12909,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -12918,10 +12913,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -12935,7 +12930,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12944,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -12953,10 +12948,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -12970,7 +12965,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -12979,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -12988,10 +12983,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13005,7 +13000,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13014,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13023,10 +13018,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13040,7 +13035,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13049,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13058,10 +13053,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13075,7 +13070,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13084,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13093,10 +13088,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13110,7 +13105,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13119,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13128,10 +13123,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13145,7 +13140,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13154,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13163,10 +13158,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13180,7 +13175,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13189,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13198,10 +13193,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13215,7 +13210,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13224,7 +13219,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13233,10 +13228,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13250,7 +13245,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13259,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13268,10 +13263,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13285,7 +13280,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13294,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13303,10 +13298,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13320,7 +13315,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13329,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13338,10 +13333,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13355,7 +13350,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13364,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13373,10 +13368,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13390,7 +13385,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13399,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13408,10 +13403,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13425,7 +13420,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13434,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13443,10 +13438,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13460,7 +13455,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D285" s="29">
         <v>-1</v>
@@ -13469,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13478,10 +13473,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J285" s="30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13492,7 +13487,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13501,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="29" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G286" s="29">
         <v>0</v>
@@ -13510,10 +13505,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J286" s="29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13524,7 +13519,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D287" s="31">
         <v>-1</v>
@@ -13533,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="31" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13542,10 +13537,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J287" s="31" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13556,7 +13551,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D288" s="13">
         <v>-1</v>
@@ -13565,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -13574,10 +13569,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="33" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
